--- a/zero-ecosystem/zero-plugins-extension/zero-exmodule-report/zero-exmodule-report-domain/src/main/resources/plugins/zero-exmodule-report/modulat/BAG_RSM.xlsx
+++ b/zero-ecosystem/zero-plugins-extension/zero-exmodule-report/zero-exmodule-report-domain/src/main/resources/plugins/zero-exmodule-report/modulat/BAG_RSM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-plugins-extension/Zero.Extension.Runtime.Report.DB/src/main/resources/plugins/zero-extension-runtime-report/modulat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/app-zero/zero-ecotope/zero-ecosystem/zero-plugins-extension/zero-exmodule-report/zero-exmodule-report-domain/src/main/resources/plugins/zero-exmodule-report/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4627EE86-4B61-5944-873D-18519FFF4E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BC6B87-0E35-9846-93CA-211C0759DD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42680" yWindow="7180" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-42680" yWindow="7280" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>key</t>
   </si>
@@ -204,14 +204,6 @@
   </si>
   <si>
     <t>entry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entryId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入口菜单ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -362,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -398,6 +390,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,7 +714,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -748,17 +747,17 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
@@ -789,9 +788,6 @@
         <v>41</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -824,40 +820,34 @@
         <v>42</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="5">
         <v>12000</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="8" t="b">
-        <v>1</v>
+      <c r="I5" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -953,7 +943,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
